--- a/data/hotels_by_city/Dallas/Dallas_shard_95.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_95.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Smartie752</t>
+  </si>
+  <si>
     <t>06/04/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>TSSNM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r562586259-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>fjmAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r545607646-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>vbasic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r544637200-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>This is the only hotel I've visited in Granbury and there are many from which to choose.  My top priorities are cleanliness and a decent bed and everything in the room works (fridge, microwave etc).  Secondary issues are internet access, decent breakfast.  We have no need for indoor pools, exercise room etc.  This hotel scored very high with my wife and me with the top priorities and also provides amenities I don't need but others may enjoy.  The only complaints I have were with the toilet which was very low to the floor (hard for old folks to get up and down) and slick water in the shower.  These are two pet peeves that do not show up on most reviews.  Nevertheless, I would recommend this hotel and may very well find a need to return.I should also give this hotel extra credit for their internet service.  It was high speed and had no restriction on what we could access.  There is no menu on their cable TV service so searching for a suitable program consumed too much time.  We were able to use our laptop and watched some of our favorite programs on Netflix and Amazon.I hope in the future, hotels will equip their TVs with blue-tooth so guests can join their laptops and watch the internet via the large screen.More</t>
   </si>
   <si>
+    <t>Work2Much2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r542907073-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>We stayed 2 nights in the king room with the Jacuzzi tub. The good thing is the jets were nice and the tub was clean. But for being a Comfort Suites and paying nearly $250 for 2 nights, we sure expected a nicer place and a better breakfast. The toilet paper does not fit the holders so they kept falling onto the floor. I tried to get caught up on a bit of paperwork but the chair at the desk didn't raise up so I was eye level with my laptop keyboard. The chair also had black tape on it to cover some wear and tear. Seriously, for half of what we paid for one night in that room, you can go to Wal-Mart and buy a functioning chair. We tried getting caught up on some laundry. The washing machine worked great. The dryer took 3 cycles to get the clothes sort of dry. The breakfast was horrible! Slim pickings, microwaved eggs (? I think? They were rubber), and the waffles were horrible. What a waste of money. Won't be back.More</t>
   </si>
   <si>
+    <t>Jimmy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r480682600-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Patricia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r475121996-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>We stayed for three nites at this hotel.  The gal that checked us in late afternooncould barely complete her task.  She seemed overwhelmed by having to answera question, and replied that she did not know, but she COULD get us towels ifwe needed them.  The maids skipped our room the first day, and on the next dayit appeared that they did the bare minimum.  The  breakfast was below averageand the gal tending to the breakfast spent most of her time on her cell phone.My guess was that guests were a bother to her.  Daytime staff were pleasantand helpful.  Why not have pleasant and helpful staff at the time of day that mostof your guests are checking in?More</t>
   </si>
   <si>
+    <t>Linda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r473179218-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>My drive was much quicker than I had anticipated, so I arrived at noon, and even though check in time isn't technically until 3pm, my room was ready. I expected to walk into a room that looked like all other hotel rooms, but I was pleasantly surprised. It was HUGE!!! By far the largest hotel room I have ever seen. Everything was spotless, and perfect. I was in town to meet up with a group of friends for a weekend getaway, but they had gotten held up, and wouldn't be arriving until later that evening. I asked the girl at the front desk what she suggested I do to kill the time. She had so many great suggestions, and knew so much about Granbury. She was even able to tell me the prices for different activities, and what was showing at the Granbury Theatre &amp; Opera House. When my friends arrived we went and shopped on the square and saw a show. When we returned to the hotel, a different girl was working the desk, She was just as helpful as the last. We had asked about some activities we had heard about, and she had printed out everything we needed to know, and had it waiting on us when we returned. Before we started our day the next morning we went down to have breakfast. It was AMAZING!! Everything was fully stocked, and the food tasted just like grandma's...My drive was much quicker than I had anticipated, so I arrived at noon, and even though check in time isn't technically until 3pm, my room was ready. I expected to walk into a room that looked like all other hotel rooms, but I was pleasantly surprised. It was HUGE!!! By far the largest hotel room I have ever seen. Everything was spotless, and perfect. I was in town to meet up with a group of friends for a weekend getaway, but they had gotten held up, and wouldn't be arriving until later that evening. I asked the girl at the front desk what she suggested I do to kill the time. She had so many great suggestions, and knew so much about Granbury. She was even able to tell me the prices for different activities, and what was showing at the Granbury Theatre &amp; Opera House. When my friends arrived we went and shopped on the square and saw a show. When we returned to the hotel, a different girl was working the desk, She was just as helpful as the last. We had asked about some activities we had heard about, and she had printed out everything we needed to know, and had it waiting on us when we returned. Before we started our day the next morning we went down to have breakfast. It was AMAZING!! Everything was fully stocked, and the food tasted just like grandma's cooking. None of us wanted to leave, and can't wait to return. We enjoyed the hotel just as much as the beautiful downtown. We have all agreed that this will be our annual girls getaway destination. Thank you Granbury Comfort Suites staff for making us feel at home! See you next year!!!More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r460970370-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Theresa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r450980734-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>Stayed for 2 nights to go to dog show  in Glen Rose.  This hotel was hassle-free with the dog fee upfront and reasonable…Loved that they did not call it a "non-refundable deposit"  Of special note for above and beyond customer service, was the desk clerk at check-in on Friday night and the woman who set-up and worked the better than average breakfast.  She made the stay for us as we had to get up early very cold mornings and were at the breakfast essentially as it opened.  The second morning, I mentioned that the Bold Coffee urn was not really hot.  She took it immediately away to make more and also took my travel mug, telling us she would fill it and we could pick fresh coffee as we left for the show.  Sure enough, when I pulled up front, my coffee was waiting at the front desk with a bag of cream, sugar and napkins.More</t>
   </si>
   <si>
+    <t>HUMBERTO_MOLINA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r432554687-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>TravelingTexanLady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r431189564-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>We have stayed at Choice Hotels anytime we travel.  No longer.  We just came from back to back funerals and needed a good rest. We paid double the price of a king room for one with a jacuzzi.  The jets along the back are not working properly.  Also the refrigerator is broken.  When I told the lady at the front desk at 1st she said "manager isn't here &amp; I can't reach her."  Then she said she talked to the manager &amp; that the said we should have called last night &amp; they could have moved us to a new room. How does that help me now? I told them to give me the price of a regular king suite minus the jacuzzi. She said "that's 1/2 price."  I said "I know. We were paying for the jacuzzi."  All she would say is "you should have told us last night." I again explained we just came from 2 funerals, we were exhausted and fell into bed."  They do not care! She said again "you could have called us last night."  I said "I could have given you a good review on Trip Advisor!"Was it really worth $65 to them to lose our business and receive a bad review that all can see? I guess so.  What a shame .... More</t>
   </si>
   <si>
+    <t>medicsweetpea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r429763501-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>We have stayed at here before, that's why we booked here again. We stayed and brought a friends with us to see The Promise in Glen Rose. The room was very clean and comfortable. We will stay here again</t>
   </si>
   <si>
+    <t>Jennifer H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r429692842-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>October 19, 2016</t>
   </si>
   <si>
+    <t>noplacetogo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r421003895-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>September 21, 2016</t>
   </si>
   <si>
+    <t>danielgkendall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r416612435-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -453,6 +501,9 @@
     <t>We stayed here September 8-9. The hot tub was cold, and jets barley worked. I went and told the guy at the front desk, and he said the maintenance  man had already gone home.This is the reason I booked this place! It ruined my whole stay! The closet was built on the wrong end of the room. It should be near the bath room. The bed is almost as hard as a rock! I could not sleep on it. The room is big and has some granite. The walls are somewhat paper thin, can hear the pluming etc.The breakfast is really good, but what good is that if you can't sleep in a hard bed! I don't know who has been writing all these good reviews about this Hotel, but I think the reviews are not true! We won't be back!More</t>
   </si>
   <si>
+    <t>Lynette N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r408968091-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -471,6 +522,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Yodatravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r407481215-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -492,6 +546,9 @@
     <t>We went for two days for a conference nearby and enjoyed our stay.  The breakfast was especially nice with sausage, eggs, biscuits, toast, oatmeal, yogurt,..many choices.  A quiet location near town and the lake, but away from the main road.  Nice beds and pillows.  The TV had limited channels but we brought an Amazon stick.  The room was nice and clean each day, and there was plenty of room with the couch and bed area separate.  However, there was no stopper in the bath tub and we couldn't get them to repair it.  We had to use a hand towel to stop up the tub so my wife could bathe.  I hope next time they will purchase a few extra tub stoppers.  Not a big expense and someone should have handled it.More</t>
   </si>
   <si>
+    <t>dreamingman60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r400195038-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -507,6 +564,9 @@
     <t>I stayed here a couple of days the last 2 weeks. I the front desk "clerk", doesn't seem to posses any people skills. I made my reservation online, but he spoke no more than 7-8 words during the check in process. This is a nice hotel, but you had better hope you don't need to ask any questions. I do like staying here; all rooms are suites and non smoking.</t>
   </si>
   <si>
+    <t>preironic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r398048074-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -525,6 +585,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Deen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r397640669-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -540,6 +603,9 @@
     <t>I stayed 4 nights over a two week period. The staff was friendly and helpful, the rooms were large, with comfortable beds and good wifi. Good hot breakfast. Will stay again next time I'm in Granbury. Highly recommended.</t>
   </si>
   <si>
+    <t>Freedom_Child</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r396239778-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -558,6 +624,9 @@
     <t>Stayed 1 night here visiting our son. King suite (room 325) roomy. Standard cheep couch &amp; chair in sitting area (didn't use hide a bed).  Pro: Bathroom was clean w/ nice thick towels. Firm bed w/ pillow top mattress was comfortable.  Even pillows weren't bad. Front desk let us check in early. Cons: AC was completely OFF on arrival so room 86 degrees.  All lamps &amp; clock unplugged. Seemed like room had not been used in awhile.  Free carb-heavy breakfast w/ bad coffee. Small indoor pool (w/ hot tub) only.  No place to sit outside &amp; visit or smoke cigars (for my husband). Looks like LaQuinta across street has big outdoor pool &amp; deck at abt same price ($90/nite). I'll check that out next time. More</t>
   </si>
   <si>
+    <t>fritz_nelius59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r396002706-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -573,6 +642,9 @@
     <t>Easy check in.  Front desk lady was friendly and helpful.  Hotel was clean outside and inside.King size bed non-smoking room was nice and clean. Air conditioner worked well.  Bed was comfortable.  They allow pets for $10 fee which I consider very reasonable.  Will stay here again if in Granbury.</t>
   </si>
   <si>
+    <t>Charles P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r392877941-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -591,6 +663,9 @@
     <t>What a nice, clean, super friendly place! Beds were great, temp controls on the wall, elevator, indoor pool and hot tube with lots of light.. Staff gave recommendations for sight seeing, great restaurants and even ran off a historic tour guide for us. We came to see Singin' in the Rain at the Opera House and were delighted with the performance. I've been attending performances off and on since the 60s and have never been disappointed. The town square is a leisurely place to stroll in and out of neat shops. We went to  Farina's for great wine and appetizers before the play and were pleasantly surprised they had live music!  Cary's has great homemade cinnamon rolls and yummy breakfast! Plan to stay again when in the areaMore</t>
   </si>
   <si>
+    <t>khristystrange</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r392206157-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -609,6 +684,9 @@
     <t>This is not our first time to stay here. We so enjoyed it the first time that we thought we would book again when coming back to Granbury. You can't go wrong with this hotel. There was a minor inconvenience of having to take the stairs because when we arrived a fire truck pulled up behind us to rescue the people stuck in the elevator. It was down the entire stay--not that I would take the chance on getting stuck.This hotel has a great location to everything. This hotel is also very clean.However, if you are looking for a great breakfast, you'll have to go somewhere else. They do not serve eggs or any type of meat like some of the other choice hotels. If you are satisfied with cereal, a danish, a waffle, or biscuits and gravy, then go for it!More</t>
   </si>
   <si>
+    <t>NBleds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r369938381-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -627,6 +705,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>ljm3235</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r352965951-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -645,6 +726,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Rick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r341031530-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -660,6 +744,9 @@
     <t xml:space="preserve">Everything here just fine.  Bed good, clean, breakfast about what one should expect, etc.  nice touches like carpeting the back stairways.  And the price is right.  It's off the highway by a block so quiet.  Bathrooms seem to have been upgraded.  </t>
   </si>
   <si>
+    <t>harm0714</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r324264699-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -678,6 +765,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>MaryAnn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r321278760-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -696,6 +786,9 @@
     <t>Our rooms were absolutely amazing. We were in two, two double bed suites. Each room was HUGE. They each had a couch that would fold out into beds as well. Bathrooms were spotless as well as the little kitchenettes. The woman who made our reservation made sure to block in our room number so that we could have connecting rooms since we were traveling with children. I cannot say enough good things about the staff and the quality of this hotel. The only complaint that I had was that the pool chlorine was so strong I could not stay in the pool area. The other downer was that there was a wedding party staying here and the drunk adults made the kids nervous. This is not the hotels fault, but none the less, annoying. Our event was cancelled in another town so we tired to keep our rooms for one more night, but they were booked full. Double downer, but these are things that cannot be controlled. Overall, excellent stay.More</t>
   </si>
   <si>
+    <t>scottj6399</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r320462451-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -711,6 +804,9 @@
     <t xml:space="preserve">My wife and I were in town for a wedding. This was the hotel re omen for us and we were pleased with it. The room was big and clean. The bed was comfy and there was even free breakfast. The staff was nice and there was free parking. There was even a fridge and microwave in the room. There are a lot of restaurants in the area too. </t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r311439778-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -729,6 +825,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Betts53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r289213429-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -747,6 +846,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Roger M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r279626070-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -768,6 +870,9 @@
     <t>Arrived for a two day stay for two rooms on Jun 5th.  Was told the boiler was out and may or may not be working during my stay.  Asked if they could find someplace that had hot water for shower etc.  Was told that they would not help because I booked the stay thru choice Hotels web site(prepaid non-refundable).  Choice found another room in a city twenty miles away but it would cost $30 more per day for each room.  Feel that this hotel and the Choice chain was passing the buck and neither would take accept that this was their problem and not mine.  With no other choice we stay at this hotel but the hot water contain black particles during the two days that we were there.More</t>
   </si>
   <si>
+    <t>MThomas3600</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r279556895-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -783,6 +888,9 @@
     <t>I was a guest at your hotel 6/8-6/10. Upon leaving my room on the last day  I could hear a loud women's voice. I went down the elevator and it continued as I entered the lobby. This women was actually at the front desk. She claimed to be the manager. She was berating disciplining and threatening a group of other ladies. I made the connection from things She yelled at them they were cleaning staff and something had been reported missing. It was so uncomfortable to witness I skipped breakfast for just coffee which was only lukewarm and began to leave. I stopped and spoke to this very loud rude women. I asked if this was her household staff to which she said yes. I suggested they have their loud discussion out of the ears of guests. She said she did not see he there. Unbelievable. I had handed her my key cards before I got coffee. I told her I had heard her when I was upstairs. She told he she was the manager when I said I was going to complain. She also told me I did not understand that a $5000 item had been stolen. I told her I did not need to know that and she should have her meetings in an office. That business was private and should not be public to guests to hear. She was not even treating her employees like people but...I was a guest at your hotel 6/8-6/10. Upon leaving my room on the last day  I could hear a loud women's voice. I went down the elevator and it continued as I entered the lobby. This women was actually at the front desk. She claimed to be the manager. She was berating disciplining and threatening a group of other ladies. I made the connection from things She yelled at them they were cleaning staff and something had been reported missing. It was so uncomfortable to witness I skipped breakfast for just coffee which was only lukewarm and began to leave. I stopped and spoke to this very loud rude women. I asked if this was her household staff to which she said yes. I suggested they have their loud discussion out of the ears of guests. She said she did not see he there. Unbelievable. I had handed her my key cards before I got coffee. I told her I had heard her when I was upstairs. She told he she was the manager when I said I was going to complain. She also told me I did not understand that a $5000 item had been stolen. I told her I did not need to know that and she should have her meetings in an office. That business was private and should not be public to guests to hear. She was not even treating her employees like people but servants and less than her. She spoke rude to me as well as was not humble or apologetic at all when confronted. I will also post this on online reviews and trip advisor. She needs to be reeled in and disciplined for conducting hotel business in this manner. Up until this I had enjoyed most of my y business stay here. The hallways and common areas of the hotel were hot. We have a lot of employees that stay here during the year from my company and affiliates . Poor manager. Poor poor.More</t>
   </si>
   <si>
+    <t>chalkdust2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r278509014-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -798,6 +906,9 @@
     <t>We stayed five nights this time.  When we stayed February 2015 the indoor pool was ice cold and the spa was lukewarm.  This time the chlorine was so strong you could not be in the pool area without burning eyes, nose, and throat.  Eventually they closed the pool area.  This continued several days until we checked out.  "Sorry" was all the front desk had to say.  We like a heated pool and hot tub when we travel so we won't be back.  The rooms are nice, staff was friendly, and the breakfast bar was fair to average.</t>
   </si>
   <si>
+    <t>Dusti S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r274894925-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -816,6 +927,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>DaveFW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r273129068-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -831,6 +945,9 @@
     <t xml:space="preserve">Decided to spend the night for my wife's graduation    Room was spacious.  We had the king suite with the jacuzzi tub.  Found out that bath bubbles can get over two feet tall.   Breakfast was nice with waffles, cereals, and Danishes.  Coffee is available in the lobby.   Staff were courteous.  We also tried the pool.  Clean and chemicals well balanced in the pool.  But hot tub was questionably clean  not sure I'd try that.   </t>
   </si>
   <si>
+    <t>Cindy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r264351455-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -852,6 +969,9 @@
     <t>We stayed at Comfort Suites Granbury 3 years ago on vacation. Due to a great experience then, we chose this hotel without hesitation for a family get away over Easter weekend. I was very disappointed at the quality and cleanliness; the room has not been well cared for, and I don't know how anyone can say this place is clean! Right away I noticed dirt on the bed skirt and a huge stain on the tapestry suitcase bed cover. The furniture was very dusty and the sofa cushions stained, gross! The green tinted pool was "recovering" from a shut down, but the pool cleaner verified proper chlorine and pH balance. We decided to give it a try, but could only stay for a few minutes because it was so cold. The indoor pool room was about 110 degrees, that doesn't count for a "heated pool"!! Breakfast fake eggs, egg-sausage biscuit inedible! Hairdryer did not work and front desk staff told me it must've been the reset button on the outlet, as if that wasn't the first thing I tried! Left the hotel with wet hair for scheduled appointments! We moved to the #1 rated property in town...there is no way to say how much the extra $30 was worth in quality, cleanliness, and overall comfort. I'll never make the mistake again to save a few dollars, or expect a hotel to be the same as it was in previous years....We stayed at Comfort Suites Granbury 3 years ago on vacation. Due to a great experience then, we chose this hotel without hesitation for a family get away over Easter weekend. I was very disappointed at the quality and cleanliness; the room has not been well cared for, and I don't know how anyone can say this place is clean! Right away I noticed dirt on the bed skirt and a huge stain on the tapestry suitcase bed cover. The furniture was very dusty and the sofa cushions stained, gross! The green tinted pool was "recovering" from a shut down, but the pool cleaner verified proper chlorine and pH balance. We decided to give it a try, but could only stay for a few minutes because it was so cold. The indoor pool room was about 110 degrees, that doesn't count for a "heated pool"!! Breakfast fake eggs, egg-sausage biscuit inedible! Hairdryer did not work and front desk staff told me it must've been the reset button on the outlet, as if that wasn't the first thing I tried! Left the hotel with wet hair for scheduled appointments! We moved to the #1 rated property in town...there is no way to say how much the extra $30 was worth in quality, cleanliness, and overall comfort. I'll never make the mistake again to save a few dollars, or expect a hotel to be the same as it was in previous years. Very disappointed! Don't stay here unless you don't care about a clean, comfortable room.More</t>
   </si>
   <si>
+    <t>jbjbjb24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r264031003-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -870,6 +990,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Anna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r261707121-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1008,9 @@
     <t>I have stayed at this hotel many times while visting with parents nearby.  And they go over and above to make me feel at home. It's quiet, the beds are comfortable, the rooms large and clean.  The hotel is decorated well and clean throughout. Friendly faces greet you every time you walk through the lobby. They also have a clean inside pool and hot tub. We will stay here again.</t>
   </si>
   <si>
+    <t>happyglobaltrotter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r258844737-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1026,9 @@
     <t>Granbury has many hotels and B&amp;B's.  Comfort Suites is predictably spacious and free WiFi and breakfast are always nice bonuses!  The staff was very helpful.  It was helpful to have both a fridge and microwave, as well as, a coffee maker.  It was a quiet hotel and offers spacious, clean rooms for a very reasonable price.</t>
   </si>
   <si>
+    <t>TexasNana24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r258320003-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1047,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Alamo341</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r248271699-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -934,6 +1066,9 @@
   </si>
   <si>
     <t>January 2015</t>
+  </si>
+  <si>
+    <t>Khristy S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r246079542-Comfort_Suites_Granbury-Granbury_Texas.html</t>
@@ -967,6 +1102,9 @@
 I enjoyed breakfast. They had four types of juices, several bagels and muffins, even french toast. They also has the usual hot breakfast of eggs, sausage, bacon, biscuits and gravy. If you wanted a waffle you could make one. There were hardboiled eggs, milk, cereal, ect. The breakfast area was clean....Not only is this hotel easy to find but it isn't but a few miles from the downtown area. The hotel is beautiful inside (even if they still had a ghost up from halloween at Christmas time).My sister wanted to stop and purchase some Lysol so she could spray the mattress down for bed bugs. However, when we saw the cleanliness of the room, there was not any concern that those pesky critters resided in this hotel. My sister even checked baseboards and they were clean!The bathroom is beautiful! However, if you are short you might have just a little trouble cleaning your face or brushing your teeth. You might have to stand on your tip toes to get up and over the sink. My mom is 5'2" and had to do that.My husband and I had a king size suite and my mother and sister had a double queen room. Both were nice and roomy. Beds were a little too soft for me but my sister loved her soft bed.I didn't have much interaction with the staff because we were only there one night.I enjoyed breakfast. They had four types of juices, several bagels and muffins, even french toast. They also has the usual hot breakfast of eggs, sausage, bacon, biscuits and gravy. If you wanted a waffle you could make one. There were hardboiled eggs, milk, cereal, ect. The breakfast area was clean.The most important decision for me is the cleanliness of the room. I will stay here any time I'm in the area.More</t>
   </si>
   <si>
+    <t>markfnkl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r240040211-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1132,9 @@
     <t>I stayed here for almost two months recently and so got to know the hotel and its staff well.  I had stayed in another area hotel for three weeks previously, and found the Comfort Suites better on all counts.   Among the things I liked: relatively low rates and good value for money. Very good if not exceptional breakfast buffet.  Good, clean, large rooms.  Quiet.  Good housekeeping staff.  Staying at hotel gives free access to gym, including group classes. at YMCA which is literally next door.  Friendly and efficient front desk staff.  I really came to feel that it was a home away from home.  Strongly recommend.More</t>
   </si>
   <si>
+    <t>Debbie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r234173264-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1156,9 @@
     <t>I was pretty amazed with the rooms at the Comfort Suites in Granbury. I stayed here with my granddaughters and was only able to get a King suite due to the occupancy. The room was nice and clean, bed was great and there was a hide-a-bed. The breakfast was the normal breakfast with cereals, fruit, rolls and juices. This breakfast included a sausage and egg sandwich on a biscuit that was very nice.The manager, Sandy, was very nice and helpful. I was a little disappointed in the pool. The heated pool was really cooler than it should have been for an indoor pool. A lot of cleaning and updating on the pool would make this an outstanding hotel. Needless to say, we were so disappointed in the pool that the girls did not want to stay and get back in this pool, so we checked out. This is a nice place to stay but not to swim.More</t>
   </si>
   <si>
+    <t>Patibelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r229484003-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1033,6 +1177,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>chrisj94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r228653299-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1051,6 +1198,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>m00nfac3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r227807456-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1219,9 @@
     <t>The rooms are spacious and clean. The price can't be beat! We had a great experience with the hotel staff with the exception of the desk clerk who checked us in. I will say though, that my husband and I decided to stay a second night in Grandbury so we went back to the hotel and got a room. This time they were friendlier. The pool could defiantly use some updating. The rust on the doors, the lack of decor, old towels and too much chlorine in the hot tub did not make for a pleasant swim. With a little elbow grease and a few dollars spent, it could be a great asset to the hotel. Over all my husband and I were pleased with our stay. We will be back.More</t>
   </si>
   <si>
+    <t>Ginanielson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r225927745-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1240,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>NHtoNC_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r222731424-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1261,9 @@
     <t>Spent the day in the charming shops of Granbury Square and wanted a nice relaxing dinner before heading out.  So, hubby and I decided to spend the night.  After checking TA, this hotel got pretty good reviews.The room was very clean and modern.  The bed was very comfortable and we had  good night's sleep.  In the morning, it was the usual breakfast area breakfast - but the eggs and sausages were hot and there was a good selection of fruits, cereals and 2% milk for the health-conscious.We originally thought about staying at a B&amp;B but the prices were rather prohibitive.  For half of what it cost to stay at a B&amp;B, this hotel met the mark.  We are very picky about where we stay, and we were not disappointed.  It is only about a mile+ from Granbury Square - off a side street on the main road - too far to walk and there are no sidewalks.More</t>
   </si>
   <si>
+    <t>Kathryn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r220856227-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1279,9 @@
     <t>This is my second time at this property, and I wasn't dissappointed. The staff is friendly and accomidating. The rooms are spacious and clean. Their was a nice variety at the breakfast bar. The pool was nice and at a perfect temp. Will definately make this my go to place when in Granbury. My husband was down for business and the family tagged along for a minivacation, since we stayed midweek the girls and I had the pool to ourselves.</t>
   </si>
   <si>
+    <t>sel6090</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r213741257-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1306,9 @@
     <t>We booked two rooms for a family vist over the 4th of July. Overall this is a nice hotel. It's not within walking distance of the square but it's a short easy drive. It's pet friendly, the rooms are large. The breakfast is your typical Sysco hot breakfast that most of these newer hotels offer. However they had breakfast burritos that were pre made that were good. Also the make your own waffles seem to be popular. The indoor pool and hot tub looked nice. Many restaurant options are close by including steak, bbq, home cooking, asain, &amp; fast food. Also a Walmart &amp; Lowes are close by.More</t>
   </si>
   <si>
+    <t>bungeex2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r211848168-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1327,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>FMMOM02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r166464606-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1348,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r164732875-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1369,9 @@
     <t>Upon first glance, the rooms are clean, the bedding nice and I thought this was going to be just fine.  However, when it came time to go to sleep, little did I know that the walls were paper thin.  No exaggeration.  I could hear the guy clear his throat in the next room.  I know, could've been worse.  To add insult to injury, he also had a little Chihuahua that would not stop barking...ALL NIGHT LONG!  When checking out the next morning, I thought I'd let management know about the noisiness and the inability to get a good night's sleep for $100+.  I'm a firm believer that you make a better impression if you handle stress in a nice, mannerly way...at first.  When I nicely mentioned this to Cyndi, the manager, rather than say, "oh, I'm so sorry", her first words were, "well, did you call the front desk?"  And she wasn't being nice back.  This put me off, because I couldn't believe my ears at first.  She then brusquely asked me where my room was and which one was the one with the dog.  She said she'd let them know.  There was no offer of compensation, no apology whatsoever and nothing "managerial" took place at all.  She needs some customer service training.  I felt sorry for the young lady working behind the counter as she looked embarrassed for the situation.  So, after all of this, I will not be...Upon first glance, the rooms are clean, the bedding nice and I thought this was going to be just fine.  However, when it came time to go to sleep, little did I know that the walls were paper thin.  No exaggeration.  I could hear the guy clear his throat in the next room.  I know, could've been worse.  To add insult to injury, he also had a little Chihuahua that would not stop barking...ALL NIGHT LONG!  When checking out the next morning, I thought I'd let management know about the noisiness and the inability to get a good night's sleep for $100+.  I'm a firm believer that you make a better impression if you handle stress in a nice, mannerly way...at first.  When I nicely mentioned this to Cyndi, the manager, rather than say, "oh, I'm so sorry", her first words were, "well, did you call the front desk?"  And she wasn't being nice back.  This put me off, because I couldn't believe my ears at first.  She then brusquely asked me where my room was and which one was the one with the dog.  She said she'd let them know.  There was no offer of compensation, no apology whatsoever and nothing "managerial" took place at all.  She needs some customer service training.  I felt sorry for the young lady working behind the counter as she looked embarrassed for the situation.  So, after all of this, I will not be going back to Comfort Suites in Granbury and I don't recommend it to any travelers either.More</t>
   </si>
   <si>
+    <t>victoryah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r161111714-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1390,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>cshotelreview</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r159346206-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1408,9 @@
     <t>Spacious room with comfortble beds. A very friendly &amp; helpful staff. I requested a early check in &amp; the staff was very accommadating. I highly recommend this hotel. The breakfast was excellent. The choices of breakfast items was very good.</t>
   </si>
   <si>
+    <t>Don M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r158806079-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1246,6 +1426,9 @@
     <t>The person answering the phone was extremely helpful getting our reservation set up and with information about the area. Room exceeded my expectations and my family of 5 were very comfortable.There is an indoor pool. While it is not located on the town square, it is a 5 minute drive away.</t>
   </si>
   <si>
+    <t>jetsetterwannabe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r158062665-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1261,6 +1444,9 @@
     <t>This place looked new.  Very nice lobby area and the staff was very nice.  The rooms are quite large, we had 2 queens with a sofa &amp; small chair.  It was late when we arrived, so not much else to describe.The beds were comfortable and we slept well.I missed the breakfast hours, but they let me go in and grab food to go, very accommodating.I would stay here again.</t>
   </si>
   <si>
+    <t>ontheroad8o734</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r156586508-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +1462,9 @@
     <t>Great rooms. Spacious, nicely decorated &amp; clean.  Friendly helpful staff.  The whole hotel is very clean.  Great breakfast.  The breakfast to go if you have to leave early in the morning is nice. Reasonable price. Using the YMCA next door was wonderful.  We would stay here again.</t>
   </si>
   <si>
+    <t>Christiejones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r154788772-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1483,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>McTwitch78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r154341857-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1309,6 +1501,9 @@
     <t xml:space="preserve">Great stay, friendly staff, reasonable price:) exactly where you would want to stay after a long couple of days of hiking.  Easily accessible to shopping and not far from the lake. Would stay here again. </t>
   </si>
   <si>
+    <t>rd f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r153418593-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1525,9 @@
     <t>I loved this hotel.  The staff was great.  The room was very spacious and very clean.  The desk could have been larger, but was adequate.  Loved, loved the wired internet connection instead of unreliable wifi!!  TV was a bit small but ok I guess.  The bathroom was spacious, the towels were soft instead of the sandpaper at other hotels.  The decor was very nice and welcoming.  And pet friendly!  I do believe I have found my "go to" hotel.  The only problem we had was the outside locking door = no ones key was working, so we had to go all the way around to the front lobby door to enter. Overall - I give them a 10 out of 10.More</t>
   </si>
   <si>
+    <t>mjfralia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r152798880-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1543,9 @@
     <t>Our group, the Lone Star Chapter of the 11th Airborne Division, has held our yearly meeting at this hotel for the last two years.  The staff, Cyndi, Sandy and Lindsay went above and beyond to make our stay enjoyable.  The rooms are spacious and very comfortable.  The breakfast area is large and has a variety of breakfast items.  The overall appearance of the hotel is immaculate.</t>
   </si>
   <si>
+    <t>Rebecca W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r151672988-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1564,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>FluffyKiko</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r149010646-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1582,9 @@
     <t>This place was inexpensive clean very modern great for high maintenance travelers. Breakfast is good and free. Coffee in lobby 24 hrs great stay! I will stay here next time for sure. Great for conference meetings too!</t>
   </si>
   <si>
+    <t>Micah E M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r147674387-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1603,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>xyztal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r146843127-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1411,6 +1621,9 @@
     <t>Stayed for two nights.  Beautiful room and it's quiet at night. Good breakfast with good choices.  Close to krogers, restaurants and the business district.  Staff is very friendly.  Most of all the rate is great! Thank you!</t>
   </si>
   <si>
+    <t>megabrat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r134315703-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1429,6 +1642,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>austx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r133436924-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1447,6 +1663,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>DoloresL132</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r131613058-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1462,6 +1681,9 @@
     <t>We had our family reunion here this year. The hotel was very accomodating. They took care of us over and above what we could have asked. The complimentary breakfast was a delicious, complete breakfast. We used their meeting room and the swimming pool was just down the hall from our meeting so children loved that. Our rooms were nice, spacious, and clean.Thank You Comfort Suites for helping to make our reunion a success!</t>
   </si>
   <si>
+    <t>Thomas S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r131340309-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1697,9 @@
   </si>
   <si>
     <t>Our family reunion was June2&amp;3,2012.We had over 80 people. The rooms were large, very clean,the breakfast was really great. The meeting room was fine for what we needed. Everything was geat, Granbury is wonderful, will for sure come again. Thank you for helping make our reunion a success.</t>
+  </si>
+  <si>
+    <t>keepmovin63</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r131023452-Comfort_Suites_Granbury-Granbury_Texas.html</t>
@@ -1500,6 +1725,9 @@
 I heard no negative comments at all from any of our group.  Christi and the rest of the staff have this place...We enjoyed our stay at Comfort Suites over the Memorial Day weekend.  Our 60+ family members included all age groups and even 3 dogs.  All of us were made to feel welcome by the friendly and efficient staff and employees.  They accommodated every request with a smile.  Our room was one of the largest hotel rooms I've ever been in.  Everything was very clean and comfortable and the beds were great.  Plenty of towels and supplies in the bathroom.  A couple of times we were disturbed by noisy kids running on the 3rd floor, above us (probably because the rooms are so big) or slamming doors on our hall.  Other than that, it was a perfect stay.  We reserved the hotel meeting room where we gathered between trips to the beach, the Wildlife Safari, Dinosaur Tracks State Park, and other attractions.  The staff kept us stocked with fresh coffee and we were able to bring in whatever food we wanted.  We also gathered there in the mornings to enjoy the free breakfast, which included delicious breakfast tacos, scrambled eggs, waffles, etc.  (By the way, if you go to the State Park to see the dinosaur tracks, don't get "sidetracked" by the tourist trap on the way.  Drive by the fake dinosaurs and watch for the State Park signs.)I heard no negative comments at all from any of our group.  Christi and the rest of the staff have this place operating just like it should!  I congratulate them and we will definitely stay there again.More</t>
   </si>
   <si>
+    <t>NardosDay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r121701777-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1743,9 @@
     <t>The hotel was very clean, the staff friendly and curtious, and any issues handled in a professional manner.  The lady working the front counter was very busy, and she still found the time to help us.</t>
   </si>
   <si>
+    <t>franklinmilford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r118719984-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1767,9 @@
     <t>I was hesitant when this hotel appeared on my itinerary, but i was quickly put at ease. From the clean modern lines of the lobby, to the friendliness of all staff, this is a gem. Staff are willing to converse with guests, showing southern charm that is such a forgtten art. I am trying to remember anything negative about this stay, and I can come up with a big, fat zero!! The location is about 2 blocks off one of the main drags in this town, very close proximity to grocery stores, restaurants and shopping. The rooms are well appointed, spacious, and appear to be relatively new. The air conditioning worked like a dream, and that I did. Like a rock. Comfy beds with many pillows...ahh. This place can not be beat, especially for the price. Will stay here again!More</t>
   </si>
   <si>
+    <t>Jack T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r117506288-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1806,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>vonda r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r116532691-Comfort_Suites_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1588,6 +1825,9 @@
   </si>
   <si>
     <t>one of the very best hotels i have ever visited. staff was very friendly, eager, accommodating. breakfast was extremely good. many choices for breakfast. plenty of food; and i went very late. only problem was that there was no place for smokers to sit. i understand and respect "non-smoking" ordinances and people that are non-smokers. however, i am handicapped so standing and/or sitting on the curb is very hard to do. THIS DOES NOT REFLECT ON THE STAFF; they tried to help. i suggest maybe a bench or two and some sort of ashtray. i personally throw my butts away after making sure that they are not burning, but it seems like the staff was forever having to clean up thrown butts.cost of stay is also excellent. i feel that you definitely get your money's worthLOVED IT!!!More</t>
+  </si>
+  <si>
+    <t>grammy3197</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1008634-r15173599-Comfort_Suites_Granbury-Granbury_Texas.html</t>
@@ -2110,43 +2350,47 @@
       <c r="A2" t="n">
         <v>56871</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2160,50 +2404,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56871</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125428</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2217,50 +2465,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56871</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125429</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2280,41 +2532,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56871</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125430</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -2333,50 +2589,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56871</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125431</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2390,50 +2650,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56871</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6642</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2453,50 +2717,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56871</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2514,56 +2782,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56871</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>10044</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2581,50 +2853,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56871</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2644,50 +2920,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56871</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>29953</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2707,50 +2987,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56871</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125432</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2764,50 +3048,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56871</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125433</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2821,50 +3109,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56871</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125434</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>120</v>
-      </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2884,35 +3176,39 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56871</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>7874</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2928,36 +3224,37 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56871</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125435</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2973,51 +3270,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56871</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125436</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3031,50 +3329,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56871</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125437</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3094,50 +3396,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56871</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>61240</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3157,50 +3463,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56871</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125438</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3214,50 +3524,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56871</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125439</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3277,50 +3591,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56871</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125440</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3340,50 +3658,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56871</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125441</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3397,50 +3719,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56871</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125442</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3460,50 +3786,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56871</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>7012</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3517,50 +3847,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56871</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125443</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3580,50 +3914,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56871</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125444</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3641,50 +3979,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56871</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125445</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3704,41 +4046,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56871</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>5140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
@@ -3757,50 +4103,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56871</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125446</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3814,50 +4164,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56871</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125447</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3877,50 +4231,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56871</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125448</v>
+      </c>
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3934,50 +4292,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56871</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3991,50 +4353,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56871</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125449</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4054,50 +4420,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56871</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>8295</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4115,50 +4485,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56871</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125450</v>
+      </c>
+      <c r="C36" t="s">
+        <v>284</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="J36" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4178,50 +4552,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56871</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125451</v>
+      </c>
+      <c r="C37" t="s">
+        <v>290</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="J37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4241,50 +4619,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56871</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125452</v>
+      </c>
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4304,50 +4686,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56871</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4361,50 +4747,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56871</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>64939</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4424,50 +4814,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56871</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125454</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4485,50 +4879,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56871</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>9559</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4546,50 +4944,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56871</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125455</v>
+      </c>
+      <c r="C43" t="s">
+        <v>330</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="O43" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4609,50 +5011,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56871</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125456</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="K44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -4672,50 +5078,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56871</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124945</v>
+      </c>
+      <c r="C45" t="s">
+        <v>343</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="K45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4735,50 +5145,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56871</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125457</v>
+      </c>
+      <c r="C46" t="s">
+        <v>350</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="J46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4796,50 +5210,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56871</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125458</v>
+      </c>
+      <c r="C47" t="s">
+        <v>358</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="J47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="K47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O47" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4861,56 +5279,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="X47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="Y47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56871</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>35143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4928,56 +5350,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="X48" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="Y48" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56871</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125459</v>
+      </c>
+      <c r="C49" t="s">
+        <v>376</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="J49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="K49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4997,50 +5423,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56871</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125460</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5058,50 +5488,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56871</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125461</v>
+      </c>
+      <c r="C51" t="s">
+        <v>390</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="K51" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5119,50 +5553,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56871</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125462</v>
+      </c>
+      <c r="C52" t="s">
+        <v>397</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="J52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5180,50 +5618,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56871</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125463</v>
+      </c>
+      <c r="C53" t="s">
+        <v>404</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="K53" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5241,50 +5683,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56871</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>17644</v>
+      </c>
+      <c r="C54" t="s">
+        <v>411</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="J54" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="K54" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -5304,50 +5750,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56871</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125464</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="O55" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5359,56 +5809,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="X55" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="Y55" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56871</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125465</v>
+      </c>
+      <c r="C56" t="s">
+        <v>426</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="J56" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="K56" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="L56" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5432,50 +5886,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56871</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125466</v>
+      </c>
+      <c r="C57" t="s">
+        <v>433</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="J57" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="K57" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5499,50 +5957,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56871</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>440</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="J58" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="K58" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5566,50 +6028,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>56871</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125467</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5633,50 +6099,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>56871</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125468</v>
+      </c>
+      <c r="C60" t="s">
+        <v>454</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="J60" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="K60" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5698,50 +6168,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>56871</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>34636</v>
+      </c>
+      <c r="C61" t="s">
+        <v>460</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="J61" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5765,50 +6239,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>56871</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125469</v>
+      </c>
+      <c r="C62" t="s">
+        <v>466</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="J62" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="K62" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="O62" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5832,50 +6310,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>56871</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125470</v>
+      </c>
+      <c r="C63" t="s">
+        <v>472</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="J63" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="K63" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="L63" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5899,50 +6381,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>56871</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125471</v>
+      </c>
+      <c r="C64" t="s">
+        <v>478</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="J64" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="K64" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5966,41 +6452,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56871</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125472</v>
+      </c>
+      <c r="C65" t="s">
+        <v>485</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="J65" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="K65" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="L65" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6029,50 +6519,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>56871</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125473</v>
+      </c>
+      <c r="C66" t="s">
+        <v>491</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="J66" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="K66" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="L66" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6096,50 +6590,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>56871</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>125474</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="J67" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="K67" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="L67" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6163,50 +6661,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>56871</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>20609</v>
+      </c>
+      <c r="C68" t="s">
+        <v>505</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="J68" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="K68" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="L68" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="O68" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6230,41 +6732,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>56871</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>125475</v>
+      </c>
+      <c r="C69" t="s">
+        <v>512</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="J69" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="K69" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="L69" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -6293,50 +6799,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>56871</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>125476</v>
+      </c>
+      <c r="C70" t="s">
+        <v>518</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="J70" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="K70" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="L70" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="O70" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6360,50 +6870,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>56871</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>125477</v>
+      </c>
+      <c r="C71" t="s">
+        <v>525</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="J71" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="K71" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="L71" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="O71" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6417,50 +6931,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>56871</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>123201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>531</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="J72" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="K72" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="L72" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="O72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6484,50 +7002,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>56871</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>125478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>538</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="J73" t="s">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="K73" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="L73" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6551,50 +7073,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>56871</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>125479</v>
+      </c>
+      <c r="C74" t="s">
+        <v>545</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>474</v>
+        <v>547</v>
       </c>
       <c r="J74" t="s">
-        <v>475</v>
+        <v>548</v>
       </c>
       <c r="K74" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="L74" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6618,50 +7144,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>56871</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>5586</v>
+      </c>
+      <c r="C75" t="s">
+        <v>551</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>478</v>
+        <v>552</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="J75" t="s">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="K75" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="L75" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="O75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6685,50 +7215,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>56871</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>125480</v>
+      </c>
+      <c r="C76" t="s">
+        <v>557</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
       <c r="J76" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="K76" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="L76" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="O76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -6752,41 +7286,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>489</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>56871</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>125481</v>
+      </c>
+      <c r="C77" t="s">
+        <v>565</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="J77" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="K77" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="L77" t="s">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -6815,50 +7353,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>494</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>56871</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>70965</v>
+      </c>
+      <c r="C78" t="s">
+        <v>571</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>572</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="J78" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="K78" t="s">
-        <v>498</v>
+        <v>575</v>
       </c>
       <c r="L78" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="O78" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -6882,50 +7424,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>501</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>56871</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>29044</v>
+      </c>
+      <c r="C79" t="s">
+        <v>579</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="J79" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="K79" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="L79" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="O79" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -6945,7 +7491,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80">
@@ -6958,37 +7504,37 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="J80" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="K80" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="L80" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="O80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7008,50 +7554,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>56871</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>125482</v>
+      </c>
+      <c r="C81" t="s">
+        <v>592</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="J81" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="K81" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
       <c r="L81" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="O81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7071,41 +7621,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>56871</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>125483</v>
+      </c>
+      <c r="C82" t="s">
+        <v>599</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="J82" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="K82" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="L82" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -7124,7 +7678,7 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
